--- a/output/OUTPUT4_A03.xlsx
+++ b/output/OUTPUT4_A03.xlsx
@@ -59,7 +59,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -76,12 +76,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -173,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -252,19 +246,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -664,11 +649,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD33"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -929,12 +914,12 @@
       <c r="B3" s="10" t="n"/>
       <c r="C3" s="25" t="inlineStr">
         <is>
-          <t>B2010602-</t>
+          <t>b2009964-</t>
         </is>
       </c>
       <c r="D3" s="25" t="inlineStr">
         <is>
-          <t>b1005505-</t>
+          <t>b2009966-</t>
         </is>
       </c>
       <c r="E3" s="26" t="inlineStr">
@@ -944,7 +929,7 @@
       </c>
       <c r="F3" s="27" t="inlineStr">
         <is>
-          <t>B2000441-</t>
+          <t>b2000610-</t>
         </is>
       </c>
       <c r="G3" s="27" t="inlineStr">
@@ -957,18 +942,18 @@
           <t>P1229875-</t>
         </is>
       </c>
-      <c r="I3" s="7" t="n"/>
+      <c r="I3" s="27" t="inlineStr">
+        <is>
+          <t>B1008293-</t>
+        </is>
+      </c>
       <c r="J3" s="27" t="inlineStr">
         <is>
           <t>P1226443-</t>
         </is>
       </c>
       <c r="K3" s="7" t="n"/>
-      <c r="L3" s="27" t="inlineStr">
-        <is>
-          <t>B1008924-</t>
-        </is>
-      </c>
+      <c r="L3" s="7" t="n"/>
       <c r="M3" s="27" t="inlineStr">
         <is>
           <t>P1232758-</t>
@@ -976,17 +961,17 @@
       </c>
       <c r="N3" s="27" t="inlineStr">
         <is>
-          <t>B2000655-</t>
+          <t>T1001199-</t>
         </is>
       </c>
       <c r="O3" s="27" t="inlineStr">
         <is>
-          <t>T2000110-</t>
+          <t>B2000075-</t>
         </is>
       </c>
       <c r="P3" s="27" t="inlineStr">
         <is>
-          <t>T1000213-</t>
+          <t>b1009131-</t>
         </is>
       </c>
       <c r="Q3" s="27" t="inlineStr">
@@ -1010,11 +995,19 @@
           <t>P1229835-</t>
         </is>
       </c>
-      <c r="V3" s="7" t="n"/>
-      <c r="W3" s="7" t="n"/>
+      <c r="V3" s="27" t="inlineStr">
+        <is>
+          <t>B1008484-</t>
+        </is>
+      </c>
+      <c r="W3" s="27" t="inlineStr">
+        <is>
+          <t>B2010495-</t>
+        </is>
+      </c>
       <c r="X3" s="27" t="inlineStr">
         <is>
-          <t>M1013433-</t>
+          <t>B2010435-</t>
         </is>
       </c>
       <c r="Y3" s="27" t="inlineStr">
@@ -1227,7 +1220,7 @@
       </c>
       <c r="I5" s="27" t="inlineStr">
         <is>
-          <t>T1000059-</t>
+          <t>x1000082-</t>
         </is>
       </c>
       <c r="J5" s="27" t="inlineStr">
@@ -1238,7 +1231,7 @@
       <c r="K5" s="7" t="n"/>
       <c r="L5" s="27" t="inlineStr">
         <is>
-          <t>B2011177-</t>
+          <t>B2012247-</t>
         </is>
       </c>
       <c r="M5" s="27" t="inlineStr">
@@ -1246,10 +1239,14 @@
           <t>p1224776-</t>
         </is>
       </c>
-      <c r="N5" s="7" t="n"/>
+      <c r="N5" s="27" t="inlineStr">
+        <is>
+          <t>B2010934-</t>
+        </is>
+      </c>
       <c r="O5" s="27" t="inlineStr">
         <is>
-          <t>B1006218-</t>
+          <t>T1000857-</t>
         </is>
       </c>
       <c r="P5" s="27" t="inlineStr">
@@ -1284,7 +1281,7 @@
       </c>
       <c r="V5" s="27" t="inlineStr">
         <is>
-          <t>T2001524-</t>
+          <t>P1205981-</t>
         </is>
       </c>
       <c r="W5" s="27" t="inlineStr">
@@ -1302,17 +1299,29 @@
           <t>B1007592-</t>
         </is>
       </c>
-      <c r="Z5" s="7" t="n"/>
-      <c r="AA5" s="7" t="n"/>
-      <c r="AB5" s="7" t="n"/>
+      <c r="Z5" s="27" t="inlineStr">
+        <is>
+          <t>T1000980-</t>
+        </is>
+      </c>
+      <c r="AA5" s="27" t="inlineStr">
+        <is>
+          <t>P1227623-</t>
+        </is>
+      </c>
+      <c r="AB5" s="27" t="inlineStr">
+        <is>
+          <t>P1227603-</t>
+        </is>
+      </c>
       <c r="AC5" s="27" t="inlineStr">
         <is>
-          <t>T1000489-</t>
+          <t>B2010850-</t>
         </is>
       </c>
       <c r="AD5" s="27" t="inlineStr">
         <is>
-          <t>b1008755-</t>
+          <t>B2011455-</t>
         </is>
       </c>
     </row>
@@ -1465,12 +1474,12 @@
       <c r="B7" s="10" t="n"/>
       <c r="C7" s="25" t="inlineStr">
         <is>
-          <t>b2009964-</t>
+          <t>B2012248-</t>
         </is>
       </c>
       <c r="D7" s="25" t="inlineStr">
         <is>
-          <t>B1004981-</t>
+          <t>T2002335-</t>
         </is>
       </c>
       <c r="E7" s="26" t="inlineStr">
@@ -1485,7 +1494,7 @@
       </c>
       <c r="G7" s="27" t="inlineStr">
         <is>
-          <t>B2011073-</t>
+          <t>B2010849-</t>
         </is>
       </c>
       <c r="H7" s="27" t="inlineStr">
@@ -1495,16 +1504,20 @@
       </c>
       <c r="I7" s="27" t="inlineStr">
         <is>
-          <t>B2000635-</t>
+          <t>M1017562-</t>
         </is>
       </c>
       <c r="J7" s="27" t="inlineStr">
         <is>
-          <t>b2010344-</t>
+          <t>B2012307-</t>
         </is>
       </c>
       <c r="K7" s="7" t="n"/>
-      <c r="L7" s="7" t="n"/>
+      <c r="L7" s="27" t="inlineStr">
+        <is>
+          <t>B2010702-</t>
+        </is>
+      </c>
       <c r="M7" s="27" t="inlineStr">
         <is>
           <t>B2000211-</t>
@@ -1542,7 +1555,7 @@
       </c>
       <c r="T7" s="27" t="inlineStr">
         <is>
-          <t>b2010408-</t>
+          <t>T1000787-</t>
         </is>
       </c>
       <c r="U7" s="27" t="inlineStr">
@@ -1555,7 +1568,11 @@
           <t>B2000885-</t>
         </is>
       </c>
-      <c r="W7" s="7" t="n"/>
+      <c r="W7" s="27" t="inlineStr">
+        <is>
+          <t>T2002688-</t>
+        </is>
+      </c>
       <c r="X7" s="27" t="inlineStr">
         <is>
           <t>B1006221-</t>
@@ -1568,7 +1585,7 @@
       </c>
       <c r="Z7" s="27" t="inlineStr">
         <is>
-          <t>B1005762-</t>
+          <t>T1001010-</t>
         </is>
       </c>
       <c r="AA7" s="27" t="inlineStr">
@@ -1741,12 +1758,12 @@
       <c r="B9" s="10" t="n"/>
       <c r="C9" s="25" t="inlineStr">
         <is>
-          <t>B2000987-</t>
+          <t>B2000631-</t>
         </is>
       </c>
       <c r="D9" s="25" t="inlineStr">
         <is>
-          <t>B2009966-</t>
+          <t>M1006301-</t>
         </is>
       </c>
       <c r="E9" s="26" t="inlineStr">
@@ -1766,7 +1783,7 @@
       </c>
       <c r="H9" s="27" t="inlineStr">
         <is>
-          <t>B2011230-</t>
+          <t>b1008547-</t>
         </is>
       </c>
       <c r="I9" s="27" t="inlineStr">
@@ -1787,12 +1804,12 @@
       </c>
       <c r="M9" s="27" t="inlineStr">
         <is>
-          <t>T1001009-</t>
+          <t>M1015619-</t>
         </is>
       </c>
       <c r="N9" s="27" t="inlineStr">
         <is>
-          <t>B1008836-</t>
+          <t>T2003119-</t>
         </is>
       </c>
       <c r="O9" s="27" t="inlineStr">
@@ -1845,25 +1862,20 @@
           <t>m1012527-</t>
         </is>
       </c>
-      <c r="Y9" s="27" t="inlineStr">
-        <is>
-          <t>B2010495-</t>
-        </is>
-      </c>
+      <c r="Y9" s="7" t="n"/>
       <c r="Z9" s="27" t="inlineStr">
         <is>
           <t>b1009274-</t>
         </is>
       </c>
-      <c r="AA9" s="28" t="inlineStr">
-        <is>
-          <t>P1230873-
-b2000430-</t>
+      <c r="AA9" s="27" t="inlineStr">
+        <is>
+          <t>P1230873-</t>
         </is>
       </c>
       <c r="AB9" s="27" t="inlineStr">
         <is>
-          <t>B2000782-</t>
+          <t>T2003115-</t>
         </is>
       </c>
       <c r="AC9" s="27" t="inlineStr">
@@ -1873,7 +1885,7 @@
       </c>
       <c r="AD9" s="27" t="inlineStr">
         <is>
-          <t>B2010435-</t>
+          <t>B2012329-</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2058,7 @@
       </c>
       <c r="G11" s="27" t="inlineStr">
         <is>
-          <t>B2011332-</t>
+          <t>X1000247-</t>
         </is>
       </c>
       <c r="H11" s="27" t="inlineStr">
@@ -2061,7 +2073,7 @@
       </c>
       <c r="J11" s="27" t="inlineStr">
         <is>
-          <t>B1006669-</t>
+          <t>b1008785-</t>
         </is>
       </c>
       <c r="K11" s="7" t="n"/>
@@ -2085,11 +2097,7 @@
           <t>B1001247-</t>
         </is>
       </c>
-      <c r="P11" s="27" t="inlineStr">
-        <is>
-          <t>B1009131-</t>
-        </is>
-      </c>
+      <c r="P11" s="7" t="n"/>
       <c r="Q11" s="27" t="inlineStr">
         <is>
           <t>B2000582-</t>
@@ -2110,12 +2118,12 @@
           <t>B1006185-</t>
         </is>
       </c>
-      <c r="U11" s="7" t="n"/>
-      <c r="V11" s="27" t="inlineStr">
-        <is>
-          <t>b1008484-</t>
-        </is>
-      </c>
+      <c r="U11" s="27" t="inlineStr">
+        <is>
+          <t>B1005280-</t>
+        </is>
+      </c>
+      <c r="V11" s="7" t="n"/>
       <c r="W11" s="27" t="inlineStr">
         <is>
           <t>T1001155-</t>
@@ -2123,10 +2131,14 @@
       </c>
       <c r="X11" s="27" t="inlineStr">
         <is>
-          <t>B1006188-</t>
-        </is>
-      </c>
-      <c r="Y11" s="7" t="n"/>
+          <t>B2011224-</t>
+        </is>
+      </c>
+      <c r="Y11" s="27" t="inlineStr">
+        <is>
+          <t>B1007514-</t>
+        </is>
+      </c>
       <c r="Z11" s="27" t="inlineStr">
         <is>
           <t>b1007929-</t>
@@ -2144,7 +2156,7 @@
       </c>
       <c r="AC11" s="27" t="inlineStr">
         <is>
-          <t>b1004558-</t>
+          <t>B1004608-</t>
         </is>
       </c>
       <c r="AD11" s="27" t="inlineStr">
@@ -2300,138 +2312,130 @@
     <row r="13">
       <c r="A13" s="23" t="n"/>
       <c r="B13" s="10" t="n"/>
-      <c r="C13" s="29" t="inlineStr">
-        <is>
-          <t>T2001596-</t>
-        </is>
-      </c>
-      <c r="D13" s="29" t="inlineStr">
-        <is>
-          <t>T1000328-</t>
-        </is>
-      </c>
-      <c r="E13" s="29" t="inlineStr">
+      <c r="C13" s="28" t="inlineStr">
+        <is>
+          <t>B1000489-</t>
+        </is>
+      </c>
+      <c r="D13" s="28" t="inlineStr">
+        <is>
+          <t>B2011445-</t>
+        </is>
+      </c>
+      <c r="E13" s="28" t="inlineStr">
         <is>
           <t>T2000297-</t>
         </is>
       </c>
-      <c r="F13" s="29" t="inlineStr">
-        <is>
-          <t>b1005289-</t>
-        </is>
-      </c>
-      <c r="G13" s="29" t="inlineStr">
-        <is>
-          <t>B2000610-</t>
-        </is>
-      </c>
-      <c r="H13" s="29" t="inlineStr">
+      <c r="F13" s="28" t="inlineStr">
+        <is>
+          <t>B2010187-</t>
+        </is>
+      </c>
+      <c r="G13" s="28" t="inlineStr">
+        <is>
+          <t>X1000245-</t>
+        </is>
+      </c>
+      <c r="H13" s="28" t="inlineStr">
         <is>
           <t>b2010902-</t>
         </is>
       </c>
-      <c r="I13" s="29" t="inlineStr">
+      <c r="I13" s="28" t="inlineStr">
         <is>
           <t>P1213126-</t>
         </is>
       </c>
-      <c r="J13" s="29" t="inlineStr">
+      <c r="J13" s="28" t="inlineStr">
         <is>
           <t>t1000677-</t>
         </is>
       </c>
       <c r="K13" s="18" t="n"/>
-      <c r="L13" s="29" t="inlineStr">
+      <c r="L13" s="28" t="inlineStr">
         <is>
           <t>B2010730-</t>
         </is>
       </c>
-      <c r="M13" s="29" t="inlineStr">
-        <is>
-          <t>T2001035-</t>
-        </is>
-      </c>
-      <c r="N13" s="29" t="inlineStr">
+      <c r="M13" s="18" t="n"/>
+      <c r="N13" s="28" t="inlineStr">
         <is>
           <t>T1000779-</t>
         </is>
       </c>
-      <c r="O13" s="29" t="inlineStr">
-        <is>
-          <t>B2000075-</t>
-        </is>
-      </c>
-      <c r="P13" s="29" t="inlineStr">
-        <is>
-          <t>X1000145-</t>
-        </is>
-      </c>
-      <c r="Q13" s="29" t="inlineStr">
+      <c r="O13" s="18" t="n"/>
+      <c r="P13" s="28" t="inlineStr">
+        <is>
+          <t>B2010240-</t>
+        </is>
+      </c>
+      <c r="Q13" s="28" t="inlineStr">
         <is>
           <t>B1006794-</t>
         </is>
       </c>
-      <c r="R13" s="29" t="inlineStr">
+      <c r="R13" s="28" t="inlineStr">
         <is>
           <t>T1001289-</t>
         </is>
       </c>
-      <c r="S13" s="29" t="inlineStr">
+      <c r="S13" s="28" t="inlineStr">
         <is>
           <t>B2000556-</t>
         </is>
       </c>
-      <c r="T13" s="29" t="inlineStr">
+      <c r="T13" s="28" t="inlineStr">
         <is>
           <t>B1007427-</t>
         </is>
       </c>
-      <c r="U13" s="29" t="inlineStr">
+      <c r="U13" s="28" t="inlineStr">
         <is>
           <t>b1008727-</t>
         </is>
       </c>
-      <c r="V13" s="29" t="inlineStr">
+      <c r="V13" s="28" t="inlineStr">
         <is>
           <t>B2010503-</t>
         </is>
       </c>
-      <c r="W13" s="29" t="inlineStr">
+      <c r="W13" s="28" t="inlineStr">
         <is>
           <t>B1007627-</t>
         </is>
       </c>
-      <c r="X13" s="29" t="inlineStr">
-        <is>
-          <t>B2000031-</t>
-        </is>
-      </c>
-      <c r="Y13" s="29" t="inlineStr">
+      <c r="X13" s="28" t="inlineStr">
+        <is>
+          <t>t2000207-</t>
+        </is>
+      </c>
+      <c r="Y13" s="28" t="inlineStr">
         <is>
           <t>M1015312-</t>
         </is>
       </c>
-      <c r="Z13" s="29" t="inlineStr">
-        <is>
-          <t>B2000609-</t>
-        </is>
-      </c>
-      <c r="AA13" s="29" t="inlineStr">
+      <c r="Z13" s="28" t="inlineStr">
+        <is>
+          <t>T2003395-</t>
+        </is>
+      </c>
+      <c r="AA13" s="28" t="inlineStr">
         <is>
           <t>b2000562-</t>
         </is>
       </c>
-      <c r="AB13" s="29" t="inlineStr">
+      <c r="AB13" s="28" t="inlineStr">
         <is>
           <t>P1233496-</t>
         </is>
       </c>
-      <c r="AC13" s="29" t="inlineStr">
+      <c r="AC13" s="28" t="inlineStr">
         <is>
           <t>B1007937-</t>
         </is>
       </c>
-      <c r="AD13" s="29" t="inlineStr">
+      <c r="AD13" s="28" t="inlineStr">
         <is>
           <t>T1000054-</t>
         </is>
@@ -2596,7 +2600,7 @@
       </c>
       <c r="E15" s="25" t="inlineStr">
         <is>
-          <t>B1005474-</t>
+          <t>B1004334-</t>
         </is>
       </c>
       <c r="F15" s="25" t="inlineStr">
@@ -2611,7 +2615,7 @@
       </c>
       <c r="H15" s="25" t="inlineStr">
         <is>
-          <t>B2010651-</t>
+          <t>B2010188-</t>
         </is>
       </c>
       <c r="I15" s="25" t="inlineStr">
@@ -2645,11 +2649,7 @@
           <t>P1054527-</t>
         </is>
       </c>
-      <c r="P15" s="25" t="inlineStr">
-        <is>
-          <t>P1223136-</t>
-        </is>
-      </c>
+      <c r="P15" s="3" t="n"/>
       <c r="Q15" s="25" t="inlineStr">
         <is>
           <t>B2009981-</t>
@@ -2660,7 +2660,11 @@
           <t>B1004075-</t>
         </is>
       </c>
-      <c r="S15" s="3" t="n"/>
+      <c r="S15" s="25" t="inlineStr">
+        <is>
+          <t>B1004377-</t>
+        </is>
+      </c>
       <c r="T15" s="25" t="inlineStr">
         <is>
           <t>u1000118-</t>
@@ -2691,13 +2695,21 @@
           <t>B1007739-</t>
         </is>
       </c>
-      <c r="Z15" s="3" t="n"/>
+      <c r="Z15" s="25" t="inlineStr">
+        <is>
+          <t>M1013320-</t>
+        </is>
+      </c>
       <c r="AA15" s="25" t="inlineStr">
         <is>
           <t>X1000085-</t>
         </is>
       </c>
-      <c r="AB15" s="3" t="n"/>
+      <c r="AB15" s="25" t="inlineStr">
+        <is>
+          <t>B1006820-</t>
+        </is>
+      </c>
       <c r="AC15" s="25" t="inlineStr">
         <is>
           <t>B1005302-</t>
@@ -3011,7 +3023,7 @@
       </c>
       <c r="L18" s="11" t="inlineStr">
         <is>
-          <t>03203G</t>
+          <t>03201G</t>
         </is>
       </c>
       <c r="M18" s="11" t="inlineStr">
@@ -3061,7 +3073,7 @@
       </c>
       <c r="V18" s="11" t="inlineStr">
         <is>
-          <t>03103G</t>
+          <t>03101G</t>
         </is>
       </c>
       <c r="W18" s="11" t="inlineStr">
@@ -3108,118 +3120,122 @@
     <row r="19">
       <c r="A19" s="23" t="n"/>
       <c r="B19" s="22" t="n"/>
-      <c r="C19" s="30" t="inlineStr">
+      <c r="C19" s="29" t="inlineStr">
         <is>
           <t>M1009562-</t>
         </is>
       </c>
-      <c r="D19" s="30" t="inlineStr">
-        <is>
-          <t>b1001223-</t>
-        </is>
-      </c>
-      <c r="E19" s="30" t="inlineStr">
+      <c r="D19" s="11" t="n"/>
+      <c r="E19" s="29" t="inlineStr">
         <is>
           <t>B1004584-</t>
         </is>
       </c>
-      <c r="F19" s="30" t="inlineStr">
+      <c r="F19" s="29" t="inlineStr">
         <is>
           <t>P1229837-</t>
         </is>
       </c>
-      <c r="G19" s="11" t="n"/>
-      <c r="H19" s="30" t="inlineStr">
+      <c r="G19" s="29" t="inlineStr">
+        <is>
+          <t>B2000782-</t>
+        </is>
+      </c>
+      <c r="H19" s="29" t="inlineStr">
         <is>
           <t>B1005376-</t>
         </is>
       </c>
-      <c r="I19" s="30" t="inlineStr">
+      <c r="I19" s="29" t="inlineStr">
         <is>
           <t>B2010159-</t>
         </is>
       </c>
-      <c r="J19" s="30" t="inlineStr">
-        <is>
-          <t>M1015870-</t>
-        </is>
-      </c>
-      <c r="K19" s="30" t="inlineStr">
+      <c r="J19" s="11" t="n"/>
+      <c r="K19" s="29" t="inlineStr">
         <is>
           <t>B1007878-</t>
         </is>
       </c>
       <c r="L19" s="11" t="n"/>
-      <c r="M19" s="30" t="inlineStr">
-        <is>
-          <t>T2001972-</t>
-        </is>
-      </c>
-      <c r="N19" s="30" t="inlineStr">
-        <is>
-          <t>B2011119-</t>
-        </is>
-      </c>
+      <c r="M19" s="11" t="n"/>
+      <c r="N19" s="11" t="n"/>
       <c r="O19" s="11" t="n"/>
-      <c r="P19" s="11" t="n"/>
-      <c r="Q19" s="30" t="inlineStr">
+      <c r="P19" s="29" t="inlineStr">
+        <is>
+          <t>T2001104-</t>
+        </is>
+      </c>
+      <c r="Q19" s="29" t="inlineStr">
         <is>
           <t>b1004127-</t>
         </is>
       </c>
-      <c r="R19" s="30" t="inlineStr">
+      <c r="R19" s="29" t="inlineStr">
         <is>
           <t>T2001823-</t>
         </is>
       </c>
-      <c r="S19" s="30" t="inlineStr">
+      <c r="S19" s="29" t="inlineStr">
         <is>
           <t>B2010363-</t>
         </is>
       </c>
-      <c r="T19" s="30" t="inlineStr">
+      <c r="T19" s="29" t="inlineStr">
         <is>
           <t>B1004563-</t>
         </is>
       </c>
-      <c r="U19" s="30" t="inlineStr">
+      <c r="U19" s="29" t="inlineStr">
         <is>
           <t>T2001512-</t>
         </is>
       </c>
-      <c r="V19" s="11" t="n"/>
-      <c r="W19" s="30" t="inlineStr">
+      <c r="V19" s="29" t="inlineStr">
+        <is>
+          <t>B2012281-</t>
+        </is>
+      </c>
+      <c r="W19" s="29" t="inlineStr">
         <is>
           <t>B2000853-</t>
         </is>
       </c>
-      <c r="X19" s="30" t="inlineStr">
+      <c r="X19" s="29" t="inlineStr">
         <is>
           <t>B2000247-</t>
         </is>
       </c>
-      <c r="Y19" s="30" t="inlineStr">
+      <c r="Y19" s="29" t="inlineStr">
         <is>
           <t>b1008641-</t>
         </is>
       </c>
-      <c r="Z19" s="30" t="inlineStr">
-        <is>
-          <t>b1006785-</t>
-        </is>
-      </c>
-      <c r="AA19" s="30" t="inlineStr">
+      <c r="Z19" s="29" t="inlineStr">
+        <is>
+          <t>b2010367-</t>
+        </is>
+      </c>
+      <c r="AA19" s="29" t="inlineStr">
         <is>
           <t>T2001517-</t>
         </is>
       </c>
-      <c r="AB19" s="30" t="inlineStr">
+      <c r="AB19" s="29" t="inlineStr">
         <is>
           <t>b2009977-</t>
         </is>
       </c>
-      <c r="AC19" s="11" t="n"/>
-      <c r="AD19" s="11" t="n"/>
+      <c r="AC19" s="29" t="inlineStr">
+        <is>
+          <t>T2002801-</t>
+        </is>
+      </c>
+      <c r="AD19" s="29" t="inlineStr">
+        <is>
+          <t>T1000328-</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="23" t="n"/>
@@ -3275,7 +3291,7 @@
       </c>
       <c r="L20" s="11" t="inlineStr">
         <is>
-          <t>03203F</t>
+          <t>03201F</t>
         </is>
       </c>
       <c r="M20" s="11" t="inlineStr">
@@ -3325,7 +3341,7 @@
       </c>
       <c r="V20" s="11" t="inlineStr">
         <is>
-          <t>03103F</t>
+          <t>03101F</t>
         </is>
       </c>
       <c r="W20" s="11" t="inlineStr">
@@ -3372,126 +3388,142 @@
     <row r="21">
       <c r="A21" s="23" t="n"/>
       <c r="B21" s="22" t="n"/>
-      <c r="C21" s="30" t="inlineStr">
+      <c r="C21" s="29" t="inlineStr">
         <is>
           <t>B1005377-</t>
         </is>
       </c>
-      <c r="D21" s="30" t="inlineStr">
+      <c r="D21" s="29" t="inlineStr">
         <is>
           <t>b1009263-</t>
         </is>
       </c>
-      <c r="E21" s="11" t="n"/>
-      <c r="F21" s="30" t="inlineStr">
+      <c r="E21" s="29" t="inlineStr">
+        <is>
+          <t>b2010761-</t>
+        </is>
+      </c>
+      <c r="F21" s="29" t="inlineStr">
         <is>
           <t>B2000654-</t>
         </is>
       </c>
-      <c r="G21" s="30" t="inlineStr">
+      <c r="G21" s="29" t="inlineStr">
         <is>
           <t>B1006198-</t>
         </is>
       </c>
-      <c r="H21" s="30" t="inlineStr">
+      <c r="H21" s="29" t="inlineStr">
         <is>
           <t>B2010493-</t>
         </is>
       </c>
-      <c r="I21" s="30" t="inlineStr">
+      <c r="I21" s="29" t="inlineStr">
         <is>
           <t>b1007581-</t>
         </is>
       </c>
-      <c r="J21" s="30" t="inlineStr">
+      <c r="J21" s="29" t="inlineStr">
         <is>
           <t>B1000317-</t>
         </is>
       </c>
-      <c r="K21" s="30" t="inlineStr">
+      <c r="K21" s="29" t="inlineStr">
         <is>
           <t>B2000055-</t>
         </is>
       </c>
-      <c r="L21" s="11" t="n"/>
-      <c r="M21" s="30" t="inlineStr">
-        <is>
-          <t>P1226402-</t>
-        </is>
-      </c>
-      <c r="N21" s="30" t="inlineStr">
-        <is>
-          <t>B1005318-</t>
-        </is>
-      </c>
-      <c r="O21" s="30" t="inlineStr">
+      <c r="L21" s="29" t="inlineStr">
+        <is>
+          <t>B1008743-</t>
+        </is>
+      </c>
+      <c r="M21" s="29" t="inlineStr">
+        <is>
+          <t>B2011472-</t>
+        </is>
+      </c>
+      <c r="N21" s="29" t="inlineStr">
+        <is>
+          <t>B1007303-</t>
+        </is>
+      </c>
+      <c r="O21" s="29" t="inlineStr">
         <is>
           <t>B1008101-</t>
         </is>
       </c>
-      <c r="P21" s="30" t="inlineStr">
+      <c r="P21" s="29" t="inlineStr">
         <is>
           <t>B1006636-</t>
         </is>
       </c>
-      <c r="Q21" s="30" t="inlineStr">
+      <c r="Q21" s="29" t="inlineStr">
         <is>
           <t>b1004742-</t>
         </is>
       </c>
-      <c r="R21" s="30" t="inlineStr">
+      <c r="R21" s="29" t="inlineStr">
         <is>
           <t>B1004570-</t>
         </is>
       </c>
-      <c r="S21" s="30" t="inlineStr">
+      <c r="S21" s="29" t="inlineStr">
         <is>
           <t>B1004736-</t>
         </is>
       </c>
-      <c r="T21" s="30" t="inlineStr">
+      <c r="T21" s="29" t="inlineStr">
         <is>
           <t>B1005676-</t>
         </is>
       </c>
-      <c r="U21" s="30" t="inlineStr">
+      <c r="U21" s="29" t="inlineStr">
         <is>
           <t>B2010824-</t>
         </is>
       </c>
-      <c r="V21" s="11" t="n"/>
-      <c r="W21" s="30" t="inlineStr">
+      <c r="V21" s="29" t="inlineStr">
+        <is>
+          <t>B1009107-</t>
+        </is>
+      </c>
+      <c r="W21" s="29" t="inlineStr">
         <is>
           <t>T2002977-</t>
         </is>
       </c>
-      <c r="X21" s="30" t="inlineStr">
-        <is>
-          <t>B2010848-</t>
-        </is>
-      </c>
-      <c r="Y21" s="11" t="n"/>
-      <c r="Z21" s="30" t="inlineStr">
+      <c r="X21" s="29" t="inlineStr">
+        <is>
+          <t>B2010565-</t>
+        </is>
+      </c>
+      <c r="Y21" s="29" t="inlineStr">
+        <is>
+          <t>T2002795-</t>
+        </is>
+      </c>
+      <c r="Z21" s="29" t="inlineStr">
         <is>
           <t>B2010300-</t>
         </is>
       </c>
-      <c r="AA21" s="30" t="inlineStr">
-        <is>
-          <t>B2010831-</t>
-        </is>
-      </c>
-      <c r="AB21" s="30" t="inlineStr">
-        <is>
-          <t>B2010849-</t>
-        </is>
-      </c>
-      <c r="AC21" s="30" t="inlineStr">
+      <c r="AA21" s="29" t="inlineStr">
+        <is>
+          <t>B2011207-</t>
+        </is>
+      </c>
+      <c r="AB21" s="29" t="inlineStr">
+        <is>
+          <t>B2010978-</t>
+        </is>
+      </c>
+      <c r="AC21" s="29" t="inlineStr">
         <is>
           <t>B1005482-</t>
         </is>
       </c>
-      <c r="AD21" s="30" t="inlineStr">
+      <c r="AD21" s="29" t="inlineStr">
         <is>
           <t>t1000171-</t>
         </is>
@@ -3551,7 +3583,7 @@
       </c>
       <c r="L22" s="11" t="inlineStr">
         <is>
-          <t>03203E</t>
+          <t>03201E</t>
         </is>
       </c>
       <c r="M22" s="11" t="inlineStr">
@@ -3601,7 +3633,7 @@
       </c>
       <c r="V22" s="11" t="inlineStr">
         <is>
-          <t>03103E</t>
+          <t>03101E</t>
         </is>
       </c>
       <c r="W22" s="11" t="inlineStr">
@@ -3648,126 +3680,142 @@
     <row r="23">
       <c r="A23" s="23" t="n"/>
       <c r="B23" s="22" t="n"/>
-      <c r="C23" s="30" t="inlineStr">
+      <c r="C23" s="29" t="inlineStr">
         <is>
           <t>B2010497-</t>
         </is>
       </c>
-      <c r="D23" s="30" t="inlineStr">
+      <c r="D23" s="29" t="inlineStr">
         <is>
           <t>B2011321-</t>
         </is>
       </c>
-      <c r="E23" s="30" t="inlineStr">
+      <c r="E23" s="29" t="inlineStr">
         <is>
           <t>B2011325-</t>
         </is>
       </c>
-      <c r="F23" s="30" t="inlineStr">
+      <c r="F23" s="29" t="inlineStr">
         <is>
           <t>B2011333-</t>
         </is>
       </c>
-      <c r="G23" s="30" t="inlineStr">
+      <c r="G23" s="29" t="inlineStr">
         <is>
           <t>B2010890-</t>
         </is>
       </c>
-      <c r="H23" s="30" t="inlineStr">
-        <is>
-          <t>B2011175-</t>
-        </is>
-      </c>
-      <c r="I23" s="11" t="n"/>
-      <c r="J23" s="30" t="inlineStr">
+      <c r="H23" s="29" t="inlineStr">
+        <is>
+          <t>B2010918-</t>
+        </is>
+      </c>
+      <c r="I23" s="29" t="inlineStr">
+        <is>
+          <t>B2011398-</t>
+        </is>
+      </c>
+      <c r="J23" s="29" t="inlineStr">
         <is>
           <t>B2000321-</t>
         </is>
       </c>
-      <c r="K23" s="30" t="inlineStr">
+      <c r="K23" s="29" t="inlineStr">
         <is>
           <t>B1000067-</t>
         </is>
       </c>
-      <c r="L23" s="11" t="n"/>
-      <c r="M23" s="11" t="n"/>
-      <c r="N23" s="30" t="inlineStr">
-        <is>
-          <t>B2000906-</t>
-        </is>
-      </c>
-      <c r="O23" s="30" t="inlineStr">
+      <c r="L23" s="29" t="inlineStr">
+        <is>
+          <t>T1001156-</t>
+        </is>
+      </c>
+      <c r="M23" s="29" t="inlineStr">
+        <is>
+          <t>T1000771-</t>
+        </is>
+      </c>
+      <c r="N23" s="29" t="inlineStr">
+        <is>
+          <t>B2011460-</t>
+        </is>
+      </c>
+      <c r="O23" s="29" t="inlineStr">
         <is>
           <t>B2011323-</t>
         </is>
       </c>
-      <c r="P23" s="30" t="inlineStr">
+      <c r="P23" s="29" t="inlineStr">
         <is>
           <t>B1006631-</t>
         </is>
       </c>
-      <c r="Q23" s="30" t="inlineStr">
-        <is>
-          <t>P1231983-</t>
-        </is>
-      </c>
-      <c r="R23" s="30" t="inlineStr">
+      <c r="Q23" s="29" t="inlineStr">
+        <is>
+          <t>T2001691-</t>
+        </is>
+      </c>
+      <c r="R23" s="29" t="inlineStr">
         <is>
           <t>m1016657-</t>
         </is>
       </c>
-      <c r="S23" s="30" t="inlineStr">
+      <c r="S23" s="29" t="inlineStr">
         <is>
           <t>B2000033-</t>
         </is>
       </c>
-      <c r="T23" s="30" t="inlineStr">
-        <is>
-          <t>B1008888-</t>
-        </is>
-      </c>
-      <c r="U23" s="30" t="inlineStr">
+      <c r="T23" s="29" t="inlineStr">
+        <is>
+          <t>P1226774-</t>
+        </is>
+      </c>
+      <c r="U23" s="29" t="inlineStr">
         <is>
           <t>B1008647-</t>
         </is>
       </c>
-      <c r="V23" s="11" t="n"/>
-      <c r="W23" s="30" t="inlineStr">
-        <is>
-          <t>b1004621-</t>
-        </is>
-      </c>
-      <c r="X23" s="30" t="inlineStr">
-        <is>
-          <t>B2010918-</t>
-        </is>
-      </c>
-      <c r="Y23" s="30" t="inlineStr">
+      <c r="V23" s="29" t="inlineStr">
+        <is>
+          <t>B2000371-</t>
+        </is>
+      </c>
+      <c r="W23" s="29" t="inlineStr">
+        <is>
+          <t>T2002827-</t>
+        </is>
+      </c>
+      <c r="X23" s="29" t="inlineStr">
+        <is>
+          <t>B1000194-</t>
+        </is>
+      </c>
+      <c r="Y23" s="29" t="inlineStr">
         <is>
           <t>B2011331-</t>
         </is>
       </c>
-      <c r="Z23" s="30" t="inlineStr">
+      <c r="Z23" s="29" t="inlineStr">
         <is>
           <t>B1006729-</t>
         </is>
       </c>
-      <c r="AA23" s="30" t="inlineStr">
+      <c r="AA23" s="29" t="inlineStr">
         <is>
           <t>B1004702-</t>
         </is>
       </c>
-      <c r="AB23" s="30" t="inlineStr">
-        <is>
-          <t>T2000300-</t>
-        </is>
-      </c>
-      <c r="AC23" s="30" t="inlineStr">
+      <c r="AB23" s="29" t="inlineStr">
+        <is>
+          <t>T2003394-</t>
+        </is>
+      </c>
+      <c r="AC23" s="29" t="inlineStr">
         <is>
           <t>t2002768-</t>
         </is>
       </c>
-      <c r="AD23" s="30" t="inlineStr">
+      <c r="AD23" s="29" t="inlineStr">
         <is>
           <t>B1008423-</t>
         </is>
@@ -3827,7 +3875,7 @@
       </c>
       <c r="L24" s="11" t="inlineStr">
         <is>
-          <t>03203D</t>
+          <t>03201D</t>
         </is>
       </c>
       <c r="M24" s="11" t="inlineStr">
@@ -3877,7 +3925,7 @@
       </c>
       <c r="V24" s="11" t="inlineStr">
         <is>
-          <t>03103D</t>
+          <t>03101D</t>
         </is>
       </c>
       <c r="W24" s="11" t="inlineStr">
@@ -3924,128 +3972,144 @@
     <row r="25">
       <c r="A25" s="23" t="n"/>
       <c r="B25" s="22" t="n"/>
-      <c r="C25" s="30" t="inlineStr">
-        <is>
-          <t>B2010267-</t>
-        </is>
-      </c>
-      <c r="D25" s="11" t="n"/>
-      <c r="E25" s="30" t="inlineStr">
-        <is>
-          <t>B2010155-</t>
-        </is>
-      </c>
-      <c r="F25" s="30" t="inlineStr">
+      <c r="C25" s="29" t="inlineStr">
+        <is>
+          <t>B1008747-</t>
+        </is>
+      </c>
+      <c r="D25" s="29" t="inlineStr">
+        <is>
+          <t>b2000430-</t>
+        </is>
+      </c>
+      <c r="E25" s="29" t="inlineStr">
+        <is>
+          <t>T2001910-</t>
+        </is>
+      </c>
+      <c r="F25" s="29" t="inlineStr">
         <is>
           <t>b2000538-</t>
         </is>
       </c>
-      <c r="G25" s="30" t="inlineStr">
-        <is>
-          <t>M1013062-</t>
-        </is>
-      </c>
-      <c r="H25" s="30" t="inlineStr">
+      <c r="G25" s="29" t="inlineStr">
+        <is>
+          <t>M1008413-</t>
+        </is>
+      </c>
+      <c r="H25" s="29" t="inlineStr">
         <is>
           <t>B1004093-</t>
         </is>
       </c>
-      <c r="I25" s="30" t="inlineStr">
-        <is>
-          <t>b2009986-</t>
-        </is>
-      </c>
-      <c r="J25" s="11" t="n"/>
-      <c r="K25" s="30" t="inlineStr">
+      <c r="I25" s="29" t="inlineStr">
+        <is>
+          <t>b2000005-</t>
+        </is>
+      </c>
+      <c r="J25" s="29" t="inlineStr">
+        <is>
+          <t>B2010616-</t>
+        </is>
+      </c>
+      <c r="K25" s="29" t="inlineStr">
         <is>
           <t>B2010258-</t>
         </is>
       </c>
-      <c r="L25" s="11" t="n"/>
-      <c r="M25" s="30" t="inlineStr">
+      <c r="L25" s="29" t="inlineStr">
+        <is>
+          <t>B2011175-</t>
+        </is>
+      </c>
+      <c r="M25" s="29" t="inlineStr">
         <is>
           <t>b2011025-</t>
         </is>
       </c>
-      <c r="N25" s="30" t="inlineStr">
-        <is>
-          <t>T1000563-</t>
-        </is>
-      </c>
-      <c r="O25" s="30" t="inlineStr">
+      <c r="N25" s="29" t="inlineStr">
+        <is>
+          <t>T2002984-</t>
+        </is>
+      </c>
+      <c r="O25" s="29" t="inlineStr">
         <is>
           <t>B1001225-</t>
         </is>
       </c>
-      <c r="P25" s="30" t="inlineStr">
-        <is>
-          <t>B2010668-</t>
-        </is>
-      </c>
-      <c r="Q25" s="30" t="inlineStr">
+      <c r="P25" s="29" t="inlineStr">
+        <is>
+          <t>t1000071-</t>
+        </is>
+      </c>
+      <c r="Q25" s="29" t="inlineStr">
         <is>
           <t>B1007222-</t>
         </is>
       </c>
-      <c r="R25" s="30" t="inlineStr">
+      <c r="R25" s="29" t="inlineStr">
         <is>
           <t>B1005019-</t>
         </is>
       </c>
-      <c r="S25" s="30" t="inlineStr">
+      <c r="S25" s="29" t="inlineStr">
         <is>
           <t>T2000304-</t>
         </is>
       </c>
-      <c r="T25" s="30" t="inlineStr">
+      <c r="T25" s="29" t="inlineStr">
         <is>
           <t>B2010499-</t>
         </is>
       </c>
-      <c r="U25" s="30" t="inlineStr">
+      <c r="U25" s="29" t="inlineStr">
         <is>
           <t>T1000970-</t>
         </is>
       </c>
-      <c r="V25" s="11" t="n"/>
-      <c r="W25" s="30" t="inlineStr">
+      <c r="V25" s="29" t="inlineStr">
+        <is>
+          <t>T2000041-</t>
+        </is>
+      </c>
+      <c r="W25" s="29" t="inlineStr">
         <is>
           <t>t1000392-</t>
         </is>
       </c>
-      <c r="X25" s="30" t="inlineStr">
+      <c r="X25" s="29" t="inlineStr">
         <is>
           <t>b1007211-</t>
         </is>
       </c>
-      <c r="Y25" s="30" t="inlineStr">
-        <is>
-          <t>B2010367-</t>
-        </is>
-      </c>
-      <c r="Z25" s="30" t="inlineStr">
+      <c r="Y25" s="29" t="inlineStr">
+        <is>
+          <t>B2000352-</t>
+        </is>
+      </c>
+      <c r="Z25" s="29" t="inlineStr">
         <is>
           <t>B1009194-</t>
         </is>
       </c>
-      <c r="AA25" s="30" t="inlineStr">
+      <c r="AA25" s="29" t="inlineStr">
         <is>
           <t>B1005004-</t>
         </is>
       </c>
-      <c r="AB25" s="30" t="inlineStr">
-        <is>
-          <t>B1000217-</t>
-        </is>
-      </c>
-      <c r="AC25" s="30" t="inlineStr">
+      <c r="AB25" s="29" t="inlineStr">
+        <is>
+          <t>T1000318-</t>
+        </is>
+      </c>
+      <c r="AC25" s="29" t="inlineStr">
         <is>
           <t>B2010113-</t>
         </is>
       </c>
-      <c r="AD25" s="30" t="inlineStr">
-        <is>
-          <t>T1000052-</t>
+      <c r="AD25" s="29" t="inlineStr">
+        <is>
+          <t>B2010408-</t>
         </is>
       </c>
     </row>
@@ -4103,7 +4167,7 @@
       </c>
       <c r="L26" s="11" t="inlineStr">
         <is>
-          <t>03203C</t>
+          <t>03201C</t>
         </is>
       </c>
       <c r="M26" s="11" t="inlineStr">
@@ -4153,7 +4217,7 @@
       </c>
       <c r="V26" s="11" t="inlineStr">
         <is>
-          <t>03103C</t>
+          <t>03101C</t>
         </is>
       </c>
       <c r="W26" s="11" t="inlineStr">
@@ -4200,135 +4264,142 @@
     <row r="27">
       <c r="A27" s="23" t="n"/>
       <c r="B27" s="22" t="n"/>
-      <c r="C27" s="30" t="inlineStr">
+      <c r="C27" s="29" t="inlineStr">
         <is>
           <t>B2000194-</t>
         </is>
       </c>
-      <c r="D27" s="30" t="inlineStr">
+      <c r="D27" s="29" t="inlineStr">
         <is>
           <t>B1005521-</t>
         </is>
       </c>
-      <c r="E27" s="30" t="inlineStr">
+      <c r="E27" s="29" t="inlineStr">
         <is>
           <t>b1007097-</t>
         </is>
       </c>
-      <c r="F27" s="30" t="inlineStr">
+      <c r="F27" s="29" t="inlineStr">
         <is>
           <t>B2000037-</t>
         </is>
       </c>
-      <c r="G27" s="30" t="inlineStr">
+      <c r="G27" s="29" t="inlineStr">
         <is>
           <t>B2000603-</t>
         </is>
       </c>
-      <c r="H27" s="30" t="inlineStr">
+      <c r="H27" s="29" t="inlineStr">
         <is>
           <t>B2000326-</t>
         </is>
       </c>
-      <c r="I27" s="30" t="inlineStr">
+      <c r="I27" s="29" t="inlineStr">
         <is>
           <t>B2000180-</t>
         </is>
       </c>
-      <c r="J27" s="30" t="inlineStr">
+      <c r="J27" s="29" t="inlineStr">
         <is>
           <t>B2000036-</t>
         </is>
       </c>
-      <c r="K27" s="30" t="inlineStr">
-        <is>
-          <t>b1009262-</t>
-        </is>
-      </c>
-      <c r="L27" s="11" t="n"/>
-      <c r="M27" s="30" t="inlineStr">
+      <c r="K27" s="29" t="inlineStr">
+        <is>
+          <t>B2011529-</t>
+        </is>
+      </c>
+      <c r="L27" s="29" t="inlineStr">
+        <is>
+          <t>B2011395-</t>
+        </is>
+      </c>
+      <c r="M27" s="29" t="inlineStr">
         <is>
           <t>B1005041-</t>
         </is>
       </c>
-      <c r="N27" s="30" t="inlineStr">
+      <c r="N27" s="29" t="inlineStr">
         <is>
           <t>B2010482-</t>
         </is>
       </c>
-      <c r="O27" s="30" t="inlineStr">
+      <c r="O27" s="29" t="inlineStr">
         <is>
           <t>T2000038-</t>
         </is>
       </c>
-      <c r="P27" s="30" t="inlineStr">
+      <c r="P27" s="29" t="inlineStr">
         <is>
           <t>B1006118-</t>
         </is>
       </c>
-      <c r="Q27" s="31" t="inlineStr">
-        <is>
-          <t>B2000356-
-T2001559-</t>
-        </is>
-      </c>
-      <c r="R27" s="30" t="inlineStr">
+      <c r="Q27" s="29" t="inlineStr">
+        <is>
+          <t>T2001559-</t>
+        </is>
+      </c>
+      <c r="R27" s="29" t="inlineStr">
         <is>
           <t>t2000997-</t>
         </is>
       </c>
-      <c r="S27" s="30" t="inlineStr">
+      <c r="S27" s="29" t="inlineStr">
         <is>
           <t>x1000122-</t>
         </is>
       </c>
-      <c r="T27" s="30" t="inlineStr">
-        <is>
-          <t>T1001010-</t>
-        </is>
-      </c>
-      <c r="U27" s="30" t="inlineStr">
-        <is>
-          <t>B2010910-</t>
-        </is>
-      </c>
-      <c r="V27" s="11" t="n"/>
-      <c r="W27" s="30" t="inlineStr">
+      <c r="T27" s="29" t="inlineStr">
+        <is>
+          <t>B2010879-</t>
+        </is>
+      </c>
+      <c r="U27" s="29" t="inlineStr">
+        <is>
+          <t>T2001659-</t>
+        </is>
+      </c>
+      <c r="V27" s="29" t="inlineStr">
+        <is>
+          <t>B1004129-</t>
+        </is>
+      </c>
+      <c r="W27" s="29" t="inlineStr">
         <is>
           <t>b1008431-</t>
         </is>
       </c>
-      <c r="X27" s="30" t="inlineStr">
+      <c r="X27" s="29" t="inlineStr">
         <is>
           <t>T2001897-</t>
         </is>
       </c>
-      <c r="Y27" s="30" t="inlineStr">
+      <c r="Y27" s="29" t="inlineStr">
         <is>
           <t>B2011269-</t>
         </is>
       </c>
-      <c r="Z27" s="30" t="inlineStr">
+      <c r="Z27" s="29" t="inlineStr">
         <is>
           <t>X1000136-</t>
         </is>
       </c>
-      <c r="AA27" s="30" t="inlineStr">
+      <c r="AA27" s="29" t="inlineStr">
         <is>
           <t>b2010907-</t>
         </is>
       </c>
-      <c r="AB27" s="30" t="inlineStr">
+      <c r="AB27" s="29" t="inlineStr">
         <is>
           <t>M1013060-</t>
         </is>
       </c>
-      <c r="AC27" s="30" t="inlineStr">
+      <c r="AC27" s="29" t="inlineStr">
         <is>
           <t>B1007765-</t>
         </is>
       </c>
-      <c r="AD27" s="30" t="inlineStr">
+      <c r="AD27" s="29" t="inlineStr">
         <is>
           <t>B1007816-</t>
         </is>
@@ -4388,7 +4459,7 @@
       </c>
       <c r="L28" s="11" t="inlineStr">
         <is>
-          <t>03203B</t>
+          <t>03201B</t>
         </is>
       </c>
       <c r="M28" s="11" t="inlineStr">
@@ -4438,7 +4509,7 @@
       </c>
       <c r="V28" s="11" t="inlineStr">
         <is>
-          <t>03103B</t>
+          <t>03101B</t>
         </is>
       </c>
       <c r="W28" s="11" t="inlineStr">
@@ -4485,132 +4556,144 @@
     <row r="29">
       <c r="A29" s="23" t="n"/>
       <c r="B29" s="22" t="n"/>
-      <c r="C29" s="29" t="inlineStr">
-        <is>
-          <t>B1004345-</t>
-        </is>
-      </c>
-      <c r="D29" s="29" t="inlineStr">
+      <c r="C29" s="28" t="inlineStr">
+        <is>
+          <t>B2010077-</t>
+        </is>
+      </c>
+      <c r="D29" s="28" t="inlineStr">
         <is>
           <t>b2011081-</t>
         </is>
       </c>
-      <c r="E29" s="29" t="inlineStr">
+      <c r="E29" s="28" t="inlineStr">
         <is>
           <t>B1008388-</t>
         </is>
       </c>
-      <c r="F29" s="29" t="inlineStr">
+      <c r="F29" s="28" t="inlineStr">
         <is>
           <t>B2000558-</t>
         </is>
       </c>
-      <c r="G29" s="29" t="inlineStr">
-        <is>
-          <t>B1005011-</t>
-        </is>
-      </c>
-      <c r="H29" s="29" t="inlineStr">
-        <is>
-          <t>b1009143-</t>
-        </is>
-      </c>
-      <c r="I29" s="29" t="inlineStr">
+      <c r="G29" s="28" t="inlineStr">
+        <is>
+          <t>T1001256-</t>
+        </is>
+      </c>
+      <c r="H29" s="28" t="inlineStr">
+        <is>
+          <t>t2001200-</t>
+        </is>
+      </c>
+      <c r="I29" s="28" t="inlineStr">
         <is>
           <t>b1008417-</t>
         </is>
       </c>
-      <c r="J29" s="19" t="n"/>
-      <c r="K29" s="29" t="inlineStr">
+      <c r="J29" s="28" t="inlineStr">
+        <is>
+          <t>B2000490-</t>
+        </is>
+      </c>
+      <c r="K29" s="28" t="inlineStr">
         <is>
           <t>T2003022-</t>
         </is>
       </c>
-      <c r="L29" s="19" t="n"/>
-      <c r="M29" s="29" t="inlineStr">
+      <c r="L29" s="28" t="inlineStr">
+        <is>
+          <t>T2003098-</t>
+        </is>
+      </c>
+      <c r="M29" s="28" t="inlineStr">
         <is>
           <t>t2001427-</t>
         </is>
       </c>
-      <c r="N29" s="29" t="inlineStr">
+      <c r="N29" s="28" t="inlineStr">
         <is>
           <t>b1006641-</t>
         </is>
       </c>
-      <c r="O29" s="29" t="inlineStr">
+      <c r="O29" s="28" t="inlineStr">
         <is>
           <t>X1000137-</t>
         </is>
       </c>
-      <c r="P29" s="29" t="inlineStr">
-        <is>
-          <t>x1000133-</t>
-        </is>
-      </c>
-      <c r="Q29" s="29" t="inlineStr">
+      <c r="P29" s="28" t="inlineStr">
+        <is>
+          <t>B2012244-</t>
+        </is>
+      </c>
+      <c r="Q29" s="28" t="inlineStr">
         <is>
           <t>b1006514-</t>
         </is>
       </c>
-      <c r="R29" s="29" t="inlineStr">
+      <c r="R29" s="28" t="inlineStr">
         <is>
           <t>B1005887-</t>
         </is>
       </c>
-      <c r="S29" s="29" t="inlineStr">
-        <is>
-          <t>B1004644-</t>
-        </is>
-      </c>
-      <c r="T29" s="29" t="inlineStr">
-        <is>
-          <t>B1008720-</t>
-        </is>
-      </c>
-      <c r="U29" s="29" t="inlineStr">
-        <is>
-          <t>P1205602-</t>
-        </is>
-      </c>
-      <c r="V29" s="19" t="n"/>
-      <c r="W29" s="29" t="inlineStr">
-        <is>
-          <t>b1008293-</t>
-        </is>
-      </c>
-      <c r="X29" s="29" t="inlineStr">
-        <is>
-          <t>B2000141-</t>
-        </is>
-      </c>
-      <c r="Y29" s="29" t="inlineStr">
+      <c r="S29" s="28" t="inlineStr">
+        <is>
+          <t>B2011505-</t>
+        </is>
+      </c>
+      <c r="T29" s="28" t="inlineStr">
+        <is>
+          <t>B2010014-</t>
+        </is>
+      </c>
+      <c r="U29" s="28" t="inlineStr">
+        <is>
+          <t>B2011161-</t>
+        </is>
+      </c>
+      <c r="V29" s="28" t="inlineStr">
+        <is>
+          <t>T2000271-</t>
+        </is>
+      </c>
+      <c r="W29" s="28" t="inlineStr">
+        <is>
+          <t>X1000259-</t>
+        </is>
+      </c>
+      <c r="X29" s="28" t="inlineStr">
+        <is>
+          <t>T2002758-</t>
+        </is>
+      </c>
+      <c r="Y29" s="28" t="inlineStr">
         <is>
           <t>B1008715-</t>
         </is>
       </c>
-      <c r="Z29" s="29" t="inlineStr">
-        <is>
-          <t>t2001630-</t>
-        </is>
-      </c>
-      <c r="AA29" s="29" t="inlineStr">
+      <c r="Z29" s="28" t="inlineStr">
+        <is>
+          <t>X1000293-</t>
+        </is>
+      </c>
+      <c r="AA29" s="28" t="inlineStr">
         <is>
           <t>M1015309-</t>
         </is>
       </c>
-      <c r="AB29" s="29" t="inlineStr">
-        <is>
-          <t>B1006873-</t>
-        </is>
-      </c>
-      <c r="AC29" s="29" t="inlineStr">
+      <c r="AB29" s="28" t="inlineStr">
+        <is>
+          <t>t2001030-</t>
+        </is>
+      </c>
+      <c r="AC29" s="28" t="inlineStr">
         <is>
           <t>B1006521-</t>
         </is>
       </c>
-      <c r="AD29" s="29" t="inlineStr">
-        <is>
-          <t>B2010903-</t>
+      <c r="AD29" s="28" t="inlineStr">
+        <is>
+          <t>B1008437-</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4751,7 @@
       </c>
       <c r="L30" s="20" t="inlineStr">
         <is>
-          <t>03203A</t>
+          <t>03201A</t>
         </is>
       </c>
       <c r="M30" s="20" t="inlineStr">
@@ -4718,7 +4801,7 @@
       </c>
       <c r="V30" s="20" t="inlineStr">
         <is>
-          <t>03103A</t>
+          <t>03101A</t>
         </is>
       </c>
       <c r="W30" s="20" t="inlineStr">
@@ -4785,7 +4868,11 @@
           <t>B1005188-</t>
         </is>
       </c>
-      <c r="G31" s="5" t="n"/>
+      <c r="G31" s="25" t="inlineStr">
+        <is>
+          <t>M1015205-</t>
+        </is>
+      </c>
       <c r="H31" s="25" t="inlineStr">
         <is>
           <t>B2000094-</t>
@@ -4803,10 +4890,14 @@
       </c>
       <c r="K31" s="25" t="inlineStr">
         <is>
-          <t>M1012525-</t>
-        </is>
-      </c>
-      <c r="L31" s="3" t="n"/>
+          <t>B2011230-</t>
+        </is>
+      </c>
+      <c r="L31" s="25" t="inlineStr">
+        <is>
+          <t>w2000115-</t>
+        </is>
+      </c>
       <c r="M31" s="25" t="inlineStr">
         <is>
           <t>T1000238-</t>
@@ -4822,11 +4913,7 @@
           <t>X1000101-</t>
         </is>
       </c>
-      <c r="P31" s="25" t="inlineStr">
-        <is>
-          <t>B1006006-</t>
-        </is>
-      </c>
+      <c r="P31" s="3" t="n"/>
       <c r="Q31" s="25" t="inlineStr">
         <is>
           <t>P1213883-</t>
@@ -4844,11 +4931,19 @@
       </c>
       <c r="T31" s="25" t="inlineStr">
         <is>
-          <t>T2000171-</t>
-        </is>
-      </c>
-      <c r="U31" s="3" t="n"/>
-      <c r="V31" s="3" t="n"/>
+          <t>B2011436-</t>
+        </is>
+      </c>
+      <c r="U31" s="25" t="inlineStr">
+        <is>
+          <t>B2010910-</t>
+        </is>
+      </c>
+      <c r="V31" s="25" t="inlineStr">
+        <is>
+          <t>b1008420-</t>
+        </is>
+      </c>
       <c r="W31" s="25" t="inlineStr">
         <is>
           <t>P1090402-</t>
@@ -4864,7 +4959,11 @@
           <t>B2000975-</t>
         </is>
       </c>
-      <c r="Z31" s="3" t="n"/>
+      <c r="Z31" s="25" t="inlineStr">
+        <is>
+          <t>B1005021-</t>
+        </is>
+      </c>
       <c r="AA31" s="25" t="inlineStr">
         <is>
           <t>X1000106-</t>
@@ -4875,10 +4974,9 @@
           <t>T2001316-</t>
         </is>
       </c>
-      <c r="AC31" s="32" t="inlineStr">
-        <is>
-          <t>T1000858-
-m1013258-</t>
+      <c r="AC31" s="25" t="inlineStr">
+        <is>
+          <t>T1000858-</t>
         </is>
       </c>
       <c r="AD31" s="25" t="inlineStr">
